--- a/wdc-page/webtables/webTables2/Book12.xlsx
+++ b/wdc-page/webtables/webTables2/Book12.xlsx
@@ -916,7 +916,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,10 +1031,10 @@
         <v>8124</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H3" s="4">
-        <v>2417</v>
+        <v>6073</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>140</v>
@@ -1075,10 +1075,10 @@
         <v>2487</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4" s="4">
-        <v>2351</v>
+        <v>1423</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>135</v>
@@ -1119,10 +1119,10 @@
         <v>1196</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H5" s="4">
-        <v>2337</v>
+        <v>1214</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>131</v>
@@ -1163,10 +1163,10 @@
         <v>624</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6" s="4">
-        <v>1186</v>
+        <v>864</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>133</v>
@@ -1207,10 +1207,10 @@
         <v>352</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H7" s="4">
-        <v>837</v>
+        <v>473</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>134</v>
@@ -1251,10 +1251,10 @@
         <v>232</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H8" s="4">
-        <v>798</v>
+        <v>435</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>132</v>
@@ -1295,10 +1295,10 @@
         <v>207</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H9" s="4">
-        <v>772</v>
+        <v>379</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>139</v>
@@ -1339,10 +1339,10 @@
         <v>150</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10" s="4">
-        <v>718</v>
+        <v>328</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>136</v>
@@ -1383,10 +1383,10 @@
         <v>137</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H11" s="4">
-        <v>710</v>
+        <v>324</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>142</v>
@@ -1427,10 +1427,10 @@
         <v>135</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H12" s="4">
-        <v>672</v>
+        <v>291</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>138</v>
@@ -1474,7 +1474,7 @@
         <v>91</v>
       </c>
       <c r="H13" s="4">
-        <v>670</v>
+        <v>290</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>143</v>
@@ -1515,10 +1515,10 @@
         <v>124</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="4">
-        <v>438</v>
+        <v>274</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
@@ -1559,10 +1559,10 @@
         <v>80</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H15" s="4">
-        <v>389</v>
+        <v>234</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>127</v>
@@ -1606,7 +1606,7 @@
         <v>90</v>
       </c>
       <c r="H16" s="4">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>141</v>
@@ -1650,7 +1650,7 @@
         <v>84</v>
       </c>
       <c r="H17" s="4">
-        <v>304</v>
+        <v>131</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>128</v>
@@ -1694,7 +1694,7 @@
         <v>89</v>
       </c>
       <c r="H18" s="4">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1731,10 +1731,10 @@
         <v>31</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H19" s="4">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1771,10 +1771,10 @@
         <v>27</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H20" s="4">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1811,10 +1811,10 @@
         <v>25</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H21" s="4">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1851,10 +1851,10 @@
         <v>13</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H22" s="4">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2882,162 +2882,162 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B1">
-        <v>17049</v>
+        <v>6073</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B2">
-        <v>673</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>549</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>457</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B5">
-        <v>392</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B6">
-        <v>275</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>273</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B8">
-        <v>243</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B9">
-        <v>199</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B10">
-        <v>188</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B11">
-        <v>166</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B12">
-        <v>123</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B15">
-        <v>36</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B16">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B18">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20">
         <v>53</v>
-      </c>
-      <c r="B20">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
